--- a/doc/04_テスト仕様書_テスト結果報告書_C5.xlsx
+++ b/doc/04_テスト仕様書_テスト結果報告書_C5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C5\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5DD99C7-86E4-490F-9325-51083E61ACEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609B7F2B-306F-4273-AA2B-E531F3D06751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="183">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="1"/>
@@ -154,19 +154,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IDを空、パスワードを有効なものにしてログインを実行。</t>
-    <rPh sb="3" eb="4">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力値エラー</t>
     <rPh sb="0" eb="3">
       <t>ニュウリョクチ</t>
@@ -174,39 +161,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IDを有効なもの、パスワードを空にしてログインを実行。</t>
-    <rPh sb="3" eb="5">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IDとパスワードを空にしてログインを実行。</t>
-    <rPh sb="9" eb="10">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IDとパスワードをそれぞれ有効なものにしてログインを実行。</t>
-    <rPh sb="13" eb="15">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -218,46 +172,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IDにシングルクォーテーションを入力してログインを実行。</t>
-    <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IDに&lt;を入力してログインを実行。</t>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IDに&gt;を入力してログインを実行。</t>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IDに;を入力してログインを実行。</t>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワードにシングルクォーテーションを入力してログインを実行。</t>
     <rPh sb="19" eb="21">
       <t>ニュウリョク</t>
@@ -309,19 +223,6 @@
   </si>
   <si>
     <t>NG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IDに文字間にスペース入力してログインを実行。</t>
-    <rPh sb="3" eb="5">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1656,10 +1557,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>500のエラー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ハンドブックトップ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1777,6 +1674,271 @@
     <t>ハンドブックトップ画面に</t>
     <rPh sb="9" eb="11">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名を空、パスワードを有効なものにしてログインを実行。</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名を有効なもの、パスワードを空にしてログインを実行。</t>
+    <rPh sb="6" eb="8">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名とパスワードを空にしてログインを実行。</t>
+    <rPh sb="12" eb="13">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名とパスワードをそれぞれ有効なものにしてログインを実行。</t>
+    <rPh sb="16" eb="18">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名にシングルクォーテーションを入力してログインを実行。</t>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名に文字間にスペース入力してログインを実行。</t>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名に;を入力してログインを実行。</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名に&lt;を入力してログインを実行。</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名に&gt;を入力してログインを実行。</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーの文字を出力</t>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>500エラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字オーバーとエラーで出力する</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストスタートボタンを押す</t>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストスタートされる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>五問テストが行われる</t>
+    <rPh sb="0" eb="2">
+      <t>ゴモン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次へボタンで次に行く</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>五問目になったら終了ボタンが出る</t>
+    <rPh sb="0" eb="3">
+      <t>ゴモンメ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了ボタンを押す</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストリザルト画面に遷移</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストリザルト画面に結果表示</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ケッカヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>五問の問題、解答を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ゴモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もう一度テストするボタンを押す</t>
+    <rPh sb="2" eb="4">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全問正解の場合得点がもらえる</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トクテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>獲得点数によって称号が変わる</t>
+    <rPh sb="0" eb="4">
+      <t>カクトクテンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川原</t>
+    <rPh sb="0" eb="2">
+      <t>カワハラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2138,16 +2300,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="3" max="4" width="16.8984375" customWidth="1"/>
     <col min="5" max="5" width="23.8984375" customWidth="1"/>
-    <col min="6" max="6" width="64.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.09765625" customWidth="1"/>
     <col min="9" max="9" width="21.296875" style="4" customWidth="1"/>
     <col min="11" max="11" width="12.5" customWidth="1"/>
@@ -2198,22 +2360,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="3"/>
       <c r="J3" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K3" s="2">
         <v>45469</v>
@@ -2226,26 +2388,26 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K4" s="2">
         <v>45468</v>
@@ -2267,15 +2429,17 @@
         <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K5" s="2">
         <v>45469</v>
@@ -2294,15 +2458,17 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K6" s="2">
         <v>45469</v>
@@ -2321,15 +2487,17 @@
         <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K7" s="2">
         <v>45469</v>
@@ -2348,17 +2516,17 @@
         <v>14</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K8" s="2">
         <v>45468</v>
@@ -2373,21 +2541,23 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K9" s="2">
         <v>45469</v>
@@ -2405,15 +2575,17 @@
         <v>14</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K10" s="2">
         <v>45469</v>
@@ -2432,15 +2604,17 @@
         <v>14</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K11" s="2">
         <v>45469</v>
@@ -2459,15 +2633,17 @@
         <v>14</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K12" s="2">
         <v>45469</v>
@@ -2486,15 +2662,17 @@
         <v>14</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K13" s="2">
         <v>45469</v>
@@ -2513,15 +2691,17 @@
         <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K14" s="2">
         <v>45469</v>
@@ -2539,15 +2719,17 @@
         <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K15" s="2">
         <v>45469</v>
@@ -2566,15 +2748,17 @@
         <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K16" s="2">
         <v>45469</v>
@@ -2593,15 +2777,17 @@
         <v>14</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K17" s="2">
         <v>45469</v>
@@ -2620,15 +2806,17 @@
         <v>14</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K18" s="2">
         <v>45469</v>
@@ -2642,24 +2830,26 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K19" s="2">
         <v>45469</v>
@@ -2673,24 +2863,26 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K20" s="2">
         <v>45469</v>
@@ -2711,15 +2903,17 @@
         <v>14</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K21" s="2">
         <v>45469</v>
@@ -2738,15 +2932,17 @@
         <v>14</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K22" s="2">
         <v>45469</v>
@@ -2765,15 +2961,17 @@
         <v>14</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K23" s="2">
         <v>45469</v>
@@ -2792,15 +2990,17 @@
         <v>14</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K24" s="2">
         <v>45469</v>
@@ -2815,21 +3015,23 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K25" s="2">
         <v>45469</v>
@@ -2848,15 +3050,17 @@
         <v>14</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K26" s="2">
         <v>45469</v>
@@ -2875,15 +3079,17 @@
         <v>14</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K27" s="2">
         <v>45469</v>
@@ -2902,15 +3108,17 @@
         <v>14</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K28" s="2">
         <v>45469</v>
@@ -2929,15 +3137,17 @@
         <v>14</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K29" s="2">
         <v>45469</v>
@@ -2953,18 +3163,20 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I30" s="3"/>
       <c r="J30" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K30" s="2">
         <v>45469</v>
@@ -2978,22 +3190,24 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I31" s="3"/>
       <c r="J31" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K31" s="2">
         <v>45469</v>
@@ -3007,22 +3221,24 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K32" s="2">
         <v>45469</v>
@@ -3041,26 +3257,26 @@
         <v>14</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K33" s="2">
         <v>45469</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="2:13">
@@ -3071,20 +3287,20 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K34" s="2">
         <v>45469</v>
@@ -3188,8 +3404,8 @@
   <dimension ref="B2:M50"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3248,26 +3464,26 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K3" s="2">
         <v>45468</v>
@@ -3286,17 +3502,17 @@
         <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K4" s="2">
         <v>45469</v>
@@ -3315,15 +3531,17 @@
         <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K5" s="2">
         <v>45469</v>
@@ -3342,15 +3560,17 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K6" s="2">
         <v>45469</v>
@@ -3371,15 +3591,17 @@
         <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K7" s="2">
         <v>45469</v>
@@ -3398,15 +3620,17 @@
         <v>14</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K8" s="2">
         <v>45469</v>
@@ -3425,15 +3649,17 @@
         <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K9" s="2">
         <v>45469</v>
@@ -3454,15 +3680,17 @@
         <v>14</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K10" s="2">
         <v>45469</v>
@@ -3481,15 +3709,17 @@
         <v>14</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K11" s="2">
         <v>45469</v>
@@ -3508,15 +3738,17 @@
         <v>14</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K12" s="2">
         <v>45469</v>
@@ -3537,15 +3769,17 @@
         <v>14</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K13" s="2">
         <v>45469</v>
@@ -3564,15 +3798,17 @@
         <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K14" s="2">
         <v>45469</v>
@@ -3591,15 +3827,17 @@
         <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K15" s="2">
         <v>45469</v>
@@ -3620,15 +3858,17 @@
         <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K16" s="2">
         <v>45469</v>
@@ -3647,15 +3887,17 @@
         <v>14</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K17" s="2">
         <v>45469</v>
@@ -3674,15 +3916,17 @@
         <v>14</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K18" s="2">
         <v>45469</v>
@@ -3701,15 +3945,17 @@
         <v>14</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K19" s="2">
         <v>45469</v>
@@ -3728,13 +3974,15 @@
         <v>14</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K20" s="2">
         <v>45469</v>
@@ -3753,13 +4001,15 @@
         <v>14</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K21" s="2">
         <v>45469</v>
@@ -3778,15 +4028,17 @@
         <v>14</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K22" s="2">
         <v>45469</v>
@@ -3805,15 +4057,17 @@
         <v>14</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H23" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K23" s="2">
         <v>45469</v>
@@ -3832,15 +4086,17 @@
         <v>14</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K24" s="2">
         <v>45469</v>
@@ -3859,15 +4115,17 @@
         <v>14</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K25" s="2">
         <v>45469</v>
@@ -3886,15 +4144,17 @@
         <v>14</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K26" s="2">
         <v>45469</v>
@@ -3913,19 +4173,17 @@
         <v>14</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I27" s="3"/>
       <c r="J27" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K27" s="2">
         <v>45469</v>
@@ -3944,17 +4202,17 @@
         <v>14</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K28" s="2">
         <v>45469</v>
@@ -3973,15 +4231,17 @@
         <v>14</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H29" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K29" s="2">
         <v>45469</v>
@@ -4345,10 +4605,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFB509E-FECC-43FA-A0DA-5A5A826AB3A4}">
   <dimension ref="B2:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4407,24 +4667,26 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K3" s="2">
         <v>45469</v>
@@ -4440,18 +4702,20 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K4" s="2">
         <v>45469</v>
@@ -4470,15 +4734,17 @@
         <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H5" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K5" s="2">
         <v>45469</v>
@@ -4497,15 +4763,17 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H6" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K6" s="2">
         <v>45469</v>
@@ -4526,15 +4794,17 @@
         <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K7" s="2">
         <v>45469</v>
@@ -4555,13 +4825,19 @@
         <v>14</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K8" s="2">
         <v>45469</v>
@@ -4580,15 +4856,17 @@
         <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K9" s="2">
         <v>45469</v>
@@ -4607,15 +4885,17 @@
         <v>14</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K10" s="2">
         <v>45469</v>
@@ -4634,15 +4914,17 @@
         <v>14</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K11" s="2">
         <v>45469</v>
@@ -4661,15 +4943,17 @@
         <v>14</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K12" s="2">
         <v>45469</v>
@@ -5090,10 +5374,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E9A09E-6CE3-4DA5-85E5-EFF63A4A9588}">
   <dimension ref="B2:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5153,24 +5437,26 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K3" s="2">
         <v>45469</v>
@@ -5189,15 +5475,17 @@
         <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K4" s="2">
         <v>45469</v>
@@ -5216,15 +5504,17 @@
         <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H5" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K5" s="2">
         <v>45469</v>
@@ -5243,15 +5533,17 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K6" s="2">
         <v>45469</v>
@@ -5270,15 +5562,17 @@
         <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K7" s="2">
         <v>45469</v>
@@ -5297,15 +5591,17 @@
         <v>14</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K8" s="2">
         <v>45469</v>
@@ -5324,15 +5620,17 @@
         <v>14</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K9" s="2">
         <v>45469</v>
@@ -5351,15 +5649,17 @@
         <v>14</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K10" s="2">
         <v>45469</v>
@@ -5373,24 +5673,26 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K11" s="2">
         <v>45469</v>
@@ -5409,15 +5711,17 @@
         <v>14</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H12" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K12" s="2">
         <v>45469</v>
@@ -5438,10 +5742,14 @@
         <v>14</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="1"/>
       <c r="K13" s="2">
@@ -5461,15 +5769,17 @@
         <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K14" s="2">
         <v>45469</v>
@@ -5490,10 +5800,14 @@
         <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="1"/>
       <c r="K15" s="2">
@@ -5510,18 +5824,20 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K16" s="2">
         <v>45469</v>
@@ -5537,18 +5853,20 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K17" s="2">
         <v>45469</v>
@@ -5562,24 +5880,26 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H18" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K18" s="2">
         <v>45469</v>
@@ -5598,15 +5918,17 @@
         <v>14</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K19" s="2">
         <v>45469</v>
@@ -5627,10 +5949,14 @@
         <v>14</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="1"/>
       <c r="K20" s="2">
@@ -5650,15 +5976,17 @@
         <v>14</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H21" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K21" s="2">
         <v>45469</v>
@@ -5679,13 +6007,17 @@
         <v>14</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K22" s="2">
         <v>45469</v>
@@ -5701,18 +6033,20 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H23" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K23" s="2">
         <v>45469</v>
@@ -5728,18 +6062,20 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H24" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K24" s="2">
         <v>45469</v>
@@ -5753,24 +6089,26 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K25" s="2">
         <v>45469</v>
@@ -5789,15 +6127,17 @@
         <v>14</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K26" s="2">
         <v>45469</v>
@@ -5818,13 +6158,17 @@
         <v>14</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K27" s="2">
         <v>45469</v>
@@ -5843,15 +6187,17 @@
         <v>14</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H28" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K28" s="2">
         <v>45469</v>
@@ -5872,13 +6218,17 @@
         <v>14</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K29" s="2">
         <v>45469</v>
@@ -5894,18 +6244,20 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I30" s="3"/>
       <c r="J30" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K30" s="2">
         <v>45469</v>
@@ -5921,18 +6273,20 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H31" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I31" s="3"/>
       <c r="J31" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K31" s="2">
         <v>45469</v>
@@ -5946,24 +6300,26 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H32" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K32" s="2">
         <v>45469</v>
@@ -5982,15 +6338,17 @@
         <v>14</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H33" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I33" s="3"/>
       <c r="J33" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K33" s="2">
         <v>45469</v>
@@ -6011,13 +6369,17 @@
         <v>14</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K34" s="2">
         <v>45469</v>
@@ -6036,15 +6398,17 @@
         <v>14</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H35" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I35" s="3"/>
       <c r="J35" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K35" s="2">
         <v>45469</v>
@@ -6065,13 +6429,17 @@
         <v>14</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I36" s="3"/>
       <c r="J36" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K36" s="2">
         <v>45469</v>
@@ -6087,18 +6455,20 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H37" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I37" s="3"/>
       <c r="J37" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K37" s="2">
         <v>45469</v>
@@ -6114,18 +6484,20 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H38" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I38" s="3"/>
       <c r="J38" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K38" s="2">
         <v>45469</v>
@@ -6144,15 +6516,17 @@
         <v>14</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H39" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I39" s="3"/>
       <c r="J39" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K39" s="2">
         <v>45469</v>
@@ -6171,15 +6545,17 @@
         <v>14</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H40" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I40" s="3"/>
       <c r="J40" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K40" s="2">
         <v>45469</v>
@@ -6198,15 +6574,17 @@
         <v>14</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H41" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I41" s="3"/>
       <c r="J41" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K41" s="2">
         <v>45469</v>
@@ -6225,15 +6603,17 @@
         <v>14</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I42" s="3"/>
       <c r="J42" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K42" s="2">
         <v>45469</v>
@@ -6420,7 +6800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C0C9E1-2214-412D-943E-24856885F7A9}">
   <dimension ref="B2:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
@@ -6468,7 +6848,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>8</v>
@@ -6483,22 +6863,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="3" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K3" s="2">
         <v>45468</v>
@@ -6515,12 +6895,14 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="1"/>
       <c r="K4" s="2"/>
@@ -6538,12 +6920,14 @@
         <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="1"/>
       <c r="K5" s="2"/>
@@ -6561,12 +6945,14 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="1"/>
       <c r="K6" s="2"/>
@@ -6584,12 +6970,14 @@
         <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="1"/>
       <c r="K7" s="2"/>
@@ -6607,12 +6995,14 @@
         <v>14</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="1"/>
       <c r="K8" s="2"/>
@@ -6625,22 +7015,22 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K9" s="2">
         <v>45468</v>
@@ -6657,17 +7047,17 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K10" s="2">
         <v>45468</v>
@@ -7110,10 +7500,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D1B4C1-82FA-4FDA-8165-E7E6323D4610}">
   <dimension ref="B2:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7123,7 +7513,7 @@
     <col min="6" max="6" width="43.59765625" style="4" customWidth="1"/>
     <col min="7" max="7" width="39.09765625" customWidth="1"/>
     <col min="9" max="9" width="27.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="47.09765625" style="4" customWidth="1"/>
   </cols>
@@ -7172,20 +7562,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F3" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H3" s="1"/>
+        <v>156</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="2"/>
+      <c r="J3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K3" s="2">
+        <v>45469</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="3"/>
     </row>
@@ -7196,17 +7594,25 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="2"/>
+      <c r="J4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K4" s="2">
+        <v>45469</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="3"/>
     </row>
@@ -7217,13 +7623,25 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="2"/>
+      <c r="J5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K5" s="2">
+        <v>45469</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="3"/>
     </row>
@@ -7234,13 +7652,25 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="2"/>
+      <c r="J6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="2">
+        <v>45469</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="3"/>
     </row>
@@ -7251,13 +7681,25 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="2"/>
+      <c r="J7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="2">
+        <v>45469</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="3"/>
     </row>
@@ -7268,13 +7710,25 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
+      <c r="J8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K8" s="2">
+        <v>45469</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="3"/>
     </row>
@@ -7285,13 +7739,25 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
+      <c r="J9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K9" s="2">
+        <v>45469</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="3"/>
     </row>
@@ -7302,13 +7768,25 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
+      <c r="J10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="2">
+        <v>45469</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="3"/>
     </row>
@@ -7319,13 +7797,25 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
+      <c r="J11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K11" s="2">
+        <v>45469</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="3"/>
     </row>
@@ -7336,13 +7826,25 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
+      <c r="J12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K12" s="2">
+        <v>45469</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="3"/>
     </row>
@@ -7353,13 +7855,25 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
+      <c r="J13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" s="2">
+        <v>45469</v>
+      </c>
       <c r="L13" s="1"/>
       <c r="M13" s="3"/>
     </row>
@@ -7370,13 +7884,25 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
+      <c r="J14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K14" s="2">
+        <v>45469</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="3"/>
     </row>
@@ -7387,13 +7913,25 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
+      <c r="J15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K15" s="2">
+        <v>45469</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="3"/>
     </row>
